--- a/pred_ohlcv/54/2019-11-01 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-11-01 ENJ ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H169"/>
+  <dimension ref="A1:I149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -411,21 +416,24 @@
         <v>74.5</v>
       </c>
       <c r="C2" t="n">
-        <v>74.3</v>
+        <v>74.5</v>
       </c>
       <c r="D2" t="n">
         <v>74.5</v>
       </c>
       <c r="E2" t="n">
-        <v>74.3</v>
+        <v>74.5</v>
       </c>
       <c r="F2" t="n">
-        <v>8269.218199999999</v>
+        <v>1465.853</v>
       </c>
       <c r="G2" t="n">
-        <v>74.94333333333319</v>
+        <v>74.95999999999985</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>74.90000000000001</v>
+        <v>74.5</v>
       </c>
       <c r="C3" t="n">
-        <v>75.2</v>
+        <v>74.3</v>
       </c>
       <c r="D3" t="n">
-        <v>75.2</v>
+        <v>74.5</v>
       </c>
       <c r="E3" t="n">
-        <v>74.90000000000001</v>
+        <v>74.3</v>
       </c>
       <c r="F3" t="n">
-        <v>31920.4835</v>
+        <v>8269.218199999999</v>
       </c>
       <c r="G3" t="n">
-        <v>74.94666666666652</v>
+        <v>74.94333333333319</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>75.40000000000001</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="D4" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="E4" t="n">
-        <v>75.40000000000001</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>41271.9807</v>
+        <v>31920.4835</v>
       </c>
       <c r="G4" t="n">
-        <v>74.95999999999985</v>
+        <v>74.94666666666652</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>75.8</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>75.8</v>
+        <v>75.7</v>
       </c>
       <c r="D5" t="n">
-        <v>75.8</v>
+        <v>75.7</v>
       </c>
       <c r="E5" t="n">
-        <v>75.8</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>11039.4043</v>
+        <v>41271.9807</v>
       </c>
       <c r="G5" t="n">
-        <v>74.96499999999986</v>
+        <v>74.95999999999985</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>75.90000000000001</v>
+        <v>75.8</v>
       </c>
       <c r="C6" t="n">
-        <v>75.90000000000001</v>
+        <v>75.8</v>
       </c>
       <c r="D6" t="n">
-        <v>75.90000000000001</v>
+        <v>75.8</v>
       </c>
       <c r="E6" t="n">
-        <v>75.90000000000001</v>
+        <v>75.8</v>
       </c>
       <c r="F6" t="n">
-        <v>3463.0284</v>
+        <v>11039.4043</v>
       </c>
       <c r="G6" t="n">
-        <v>74.97999999999985</v>
+        <v>74.96499999999986</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -550,12 +570,15 @@
         <v>75.90000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>17092.3838</v>
+        <v>3463.0284</v>
       </c>
       <c r="G7" t="n">
-        <v>74.99499999999985</v>
+        <v>74.97999999999985</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>76</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>76.7</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>76.7</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>76</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>22107.9539</v>
+        <v>17092.3838</v>
       </c>
       <c r="G8" t="n">
-        <v>75.02499999999985</v>
+        <v>74.99499999999985</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>76</v>
+      </c>
+      <c r="C9" t="n">
         <v>76.7</v>
       </c>
-      <c r="C9" t="n">
-        <v>76.90000000000001</v>
-      </c>
       <c r="D9" t="n">
-        <v>76.90000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="E9" t="n">
-        <v>76.7</v>
+        <v>76</v>
       </c>
       <c r="F9" t="n">
-        <v>31941.1803</v>
+        <v>22107.9539</v>
       </c>
       <c r="G9" t="n">
-        <v>75.05333333333319</v>
+        <v>75.02499999999985</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>77.2</v>
+        <v>76.7</v>
       </c>
       <c r="C10" t="n">
-        <v>77.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>77.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>77.2</v>
+        <v>76.7</v>
       </c>
       <c r="F10" t="n">
-        <v>20927.2016</v>
+        <v>31941.1803</v>
       </c>
       <c r="G10" t="n">
-        <v>75.08999999999985</v>
+        <v>75.05333333333319</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>77.40000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="C11" t="n">
-        <v>77.09999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="D11" t="n">
-        <v>77.40000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="E11" t="n">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="F11" t="n">
-        <v>29478.6467</v>
+        <v>20927.2016</v>
       </c>
       <c r="G11" t="n">
-        <v>75.12166666666651</v>
+        <v>75.08999999999985</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,25 +703,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>77.2</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>76.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>77.2</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>76.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="F12" t="n">
-        <v>14987.0129</v>
+        <v>29478.6467</v>
       </c>
       <c r="G12" t="n">
-        <v>75.14999999999985</v>
+        <v>75.12166666666651</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -694,25 +732,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="C13" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="C13" t="n">
-        <v>76.59999999999999</v>
-      </c>
       <c r="D13" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="E13" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="E13" t="n">
-        <v>76.59999999999999</v>
-      </c>
       <c r="F13" t="n">
-        <v>8791.4197</v>
+        <v>14987.0129</v>
       </c>
       <c r="G13" t="n">
-        <v>75.16999999999986</v>
+        <v>75.14999999999985</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="C14" t="n">
         <v>76.59999999999999</v>
       </c>
-      <c r="C14" t="n">
-        <v>77.09999999999999</v>
-      </c>
       <c r="D14" t="n">
-        <v>77.09999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E14" t="n">
         <v>76.59999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>10264.5291</v>
+        <v>8791.4197</v>
       </c>
       <c r="G14" t="n">
-        <v>75.20333333333319</v>
+        <v>75.16999999999986</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>76.90000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>76.90000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>6037.8855</v>
+        <v>10264.5291</v>
       </c>
       <c r="G15" t="n">
-        <v>75.22999999999986</v>
+        <v>75.20333333333319</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,7 +819,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C16" t="n">
         <v>77</v>
@@ -781,15 +828,18 @@
         <v>77</v>
       </c>
       <c r="E16" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>12000</v>
+        <v>6037.8855</v>
       </c>
       <c r="G16" t="n">
-        <v>75.26666666666652</v>
+        <v>75.22999999999986</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>76.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="C17" t="n">
-        <v>77.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="D17" t="n">
-        <v>77.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="E17" t="n">
-        <v>76.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="F17" t="n">
-        <v>29061.4337</v>
+        <v>12000</v>
       </c>
       <c r="G17" t="n">
-        <v>75.31166666666654</v>
+        <v>75.26666666666652</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,7 +877,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>77.09999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C18" t="n">
         <v>77.09999999999999</v>
@@ -833,15 +886,18 @@
         <v>77.09999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>77.09999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>168.2931</v>
+        <v>29061.4337</v>
       </c>
       <c r="G18" t="n">
-        <v>75.35833333333321</v>
+        <v>75.31166666666654</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>76.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>76.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>76.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>76.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>7177.9557</v>
+        <v>168.2931</v>
       </c>
       <c r="G19" t="n">
-        <v>75.40333333333321</v>
+        <v>75.35833333333321</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="C20" t="n">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="D20" t="n">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="E20" t="n">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="F20" t="n">
-        <v>13043.7157</v>
+        <v>7177.9557</v>
       </c>
       <c r="G20" t="n">
-        <v>75.43333333333321</v>
+        <v>75.40333333333321</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>76.5</v>
+        <v>76.7</v>
       </c>
       <c r="C21" t="n">
-        <v>76.5</v>
+        <v>76.7</v>
       </c>
       <c r="D21" t="n">
-        <v>76.5</v>
+        <v>76.7</v>
       </c>
       <c r="E21" t="n">
-        <v>76.5</v>
+        <v>76.7</v>
       </c>
       <c r="F21" t="n">
-        <v>7500</v>
+        <v>13043.7157</v>
       </c>
       <c r="G21" t="n">
-        <v>75.45999999999988</v>
+        <v>75.43333333333321</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>76.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="C22" t="n">
-        <v>76.3</v>
+        <v>76.5</v>
       </c>
       <c r="D22" t="n">
-        <v>76.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="E22" t="n">
-        <v>76.3</v>
+        <v>76.5</v>
       </c>
       <c r="F22" t="n">
-        <v>26321.5404</v>
+        <v>7500</v>
       </c>
       <c r="G22" t="n">
-        <v>75.48333333333322</v>
+        <v>75.45999999999988</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>76.3</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C23" t="n">
         <v>76.3</v>
       </c>
       <c r="D23" t="n">
-        <v>76.3</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E23" t="n">
         <v>76.3</v>
       </c>
       <c r="F23" t="n">
-        <v>9525.911700000001</v>
+        <v>26321.5404</v>
       </c>
       <c r="G23" t="n">
-        <v>75.5049999999999</v>
+        <v>75.48333333333322</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -992,12 +1063,15 @@
         <v>76.3</v>
       </c>
       <c r="F24" t="n">
-        <v>355.4149</v>
+        <v>9525.911700000001</v>
       </c>
       <c r="G24" t="n">
-        <v>75.52666666666657</v>
+        <v>75.5049999999999</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>76.09999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="C25" t="n">
-        <v>76.09999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="D25" t="n">
-        <v>76.09999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="E25" t="n">
-        <v>76.09999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="F25" t="n">
-        <v>4952.8494</v>
+        <v>355.4149</v>
       </c>
       <c r="G25" t="n">
-        <v>75.54666666666658</v>
+        <v>75.52666666666657</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>76.40000000000001</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>77.09999999999999</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>77.09999999999999</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>76.40000000000001</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>16317.5921</v>
+        <v>4952.8494</v>
       </c>
       <c r="G26" t="n">
-        <v>75.58333333333326</v>
+        <v>75.54666666666658</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,7 +1138,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>77.09999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C27" t="n">
         <v>77.09999999999999</v>
@@ -1067,15 +1147,18 @@
         <v>77.09999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>77.09999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>2993.0098</v>
+        <v>16317.5921</v>
       </c>
       <c r="G27" t="n">
-        <v>75.61999999999993</v>
+        <v>75.58333333333326</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>77.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>77.5</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>77.5</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>77.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>5270</v>
+        <v>2993.0098</v>
       </c>
       <c r="G28" t="n">
-        <v>75.6616666666666</v>
+        <v>75.61999999999993</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,7 +1196,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>77.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C29" t="n">
         <v>77.5</v>
@@ -1119,15 +1205,18 @@
         <v>77.5</v>
       </c>
       <c r="E29" t="n">
-        <v>77.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>11037.8803</v>
+        <v>5270</v>
       </c>
       <c r="G29" t="n">
-        <v>75.70333333333328</v>
+        <v>75.6616666666666</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1148,12 +1237,15 @@
         <v>77.5</v>
       </c>
       <c r="F30" t="n">
-        <v>3017.8375</v>
+        <v>11037.8803</v>
       </c>
       <c r="G30" t="n">
-        <v>75.74666666666661</v>
+        <v>75.70333333333328</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1165,21 +1257,24 @@
         <v>77.5</v>
       </c>
       <c r="C31" t="n">
-        <v>77.3</v>
+        <v>77.5</v>
       </c>
       <c r="D31" t="n">
         <v>77.5</v>
       </c>
       <c r="E31" t="n">
-        <v>77.3</v>
+        <v>77.5</v>
       </c>
       <c r="F31" t="n">
-        <v>9000</v>
+        <v>3017.8375</v>
       </c>
       <c r="G31" t="n">
-        <v>75.78666666666662</v>
+        <v>75.74666666666661</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1191,21 +1286,24 @@
         <v>77.5</v>
       </c>
       <c r="C32" t="n">
-        <v>77.5</v>
+        <v>77.3</v>
       </c>
       <c r="D32" t="n">
         <v>77.5</v>
       </c>
       <c r="E32" t="n">
-        <v>77.5</v>
+        <v>77.3</v>
       </c>
       <c r="F32" t="n">
-        <v>4377.4317</v>
+        <v>9000</v>
       </c>
       <c r="G32" t="n">
-        <v>75.82999999999996</v>
+        <v>75.78666666666662</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="C33" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="D33" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="E33" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="F33" t="n">
-        <v>21441.4714</v>
+        <v>4377.4317</v>
       </c>
       <c r="G33" t="n">
-        <v>75.86999999999996</v>
+        <v>75.82999999999996</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1243,21 +1344,24 @@
         <v>77.59999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E34" t="n">
         <v>77.59999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>12000</v>
+        <v>21441.4714</v>
       </c>
       <c r="G34" t="n">
-        <v>75.90999999999995</v>
+        <v>75.86999999999996</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1269,21 +1373,24 @@
         <v>77.59999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>77.8</v>
+        <v>77.7</v>
       </c>
       <c r="D35" t="n">
-        <v>77.8</v>
+        <v>77.7</v>
       </c>
       <c r="E35" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>21242.2129</v>
+        <v>12000</v>
       </c>
       <c r="G35" t="n">
-        <v>75.95166666666663</v>
+        <v>75.90999999999995</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="C36" t="n">
         <v>77.8</v>
       </c>
-      <c r="C36" t="n">
-        <v>78</v>
-      </c>
       <c r="D36" t="n">
-        <v>78</v>
+        <v>77.8</v>
       </c>
       <c r="E36" t="n">
-        <v>77.8</v>
+        <v>77.5</v>
       </c>
       <c r="F36" t="n">
-        <v>14562.9375</v>
+        <v>21242.2129</v>
       </c>
       <c r="G36" t="n">
-        <v>75.99499999999996</v>
+        <v>75.95166666666663</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>78.09999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="C37" t="n">
-        <v>78.3</v>
+        <v>78</v>
       </c>
       <c r="D37" t="n">
-        <v>78.3</v>
+        <v>78</v>
       </c>
       <c r="E37" t="n">
-        <v>78.09999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="F37" t="n">
-        <v>73407.2729</v>
+        <v>14562.9375</v>
       </c>
       <c r="G37" t="n">
-        <v>76.04499999999997</v>
+        <v>75.99499999999996</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>78.40000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>78.5</v>
+        <v>78.3</v>
       </c>
       <c r="D38" t="n">
-        <v>78.5</v>
+        <v>78.3</v>
       </c>
       <c r="E38" t="n">
-        <v>78.3</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>63294.2574</v>
+        <v>73407.2729</v>
       </c>
       <c r="G38" t="n">
-        <v>76.10166666666663</v>
+        <v>76.04499999999997</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="C39" t="n">
         <v>78.5</v>
       </c>
-      <c r="C39" t="n">
-        <v>78.7</v>
-      </c>
       <c r="D39" t="n">
-        <v>78.7</v>
+        <v>78.5</v>
       </c>
       <c r="E39" t="n">
-        <v>78.2</v>
+        <v>78.3</v>
       </c>
       <c r="F39" t="n">
-        <v>79070.96189999999</v>
+        <v>63294.2574</v>
       </c>
       <c r="G39" t="n">
-        <v>76.16333333333328</v>
+        <v>76.10166666666663</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>78.7</v>
+        <v>78.5</v>
       </c>
       <c r="C40" t="n">
         <v>78.7</v>
       </c>
       <c r="D40" t="n">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="E40" t="n">
-        <v>78.7</v>
+        <v>78.2</v>
       </c>
       <c r="F40" t="n">
-        <v>101539.6848</v>
+        <v>79070.96189999999</v>
       </c>
       <c r="G40" t="n">
-        <v>76.22499999999995</v>
+        <v>76.16333333333328</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1428,18 +1550,21 @@
         <v>78.7</v>
       </c>
       <c r="D41" t="n">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="E41" t="n">
         <v>78.7</v>
       </c>
       <c r="F41" t="n">
-        <v>14346.0585</v>
+        <v>101539.6848</v>
       </c>
       <c r="G41" t="n">
-        <v>76.28666666666662</v>
+        <v>76.22499999999995</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>78.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="C42" t="n">
-        <v>78.2</v>
+        <v>78.7</v>
       </c>
       <c r="D42" t="n">
-        <v>78.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="E42" t="n">
-        <v>78.2</v>
+        <v>78.7</v>
       </c>
       <c r="F42" t="n">
-        <v>7310.9609</v>
+        <v>14346.0585</v>
       </c>
       <c r="G42" t="n">
-        <v>76.33999999999995</v>
+        <v>76.28666666666662</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>78</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>77.8</v>
+        <v>78.2</v>
       </c>
       <c r="D43" t="n">
-        <v>78</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>77.8</v>
+        <v>78.2</v>
       </c>
       <c r="F43" t="n">
-        <v>9228.2251</v>
+        <v>7310.9609</v>
       </c>
       <c r="G43" t="n">
-        <v>76.38499999999995</v>
+        <v>76.33999999999995</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>77.8</v>
+        <v>78</v>
       </c>
       <c r="C44" t="n">
         <v>77.8</v>
       </c>
       <c r="D44" t="n">
-        <v>77.8</v>
+        <v>78</v>
       </c>
       <c r="E44" t="n">
         <v>77.8</v>
       </c>
       <c r="F44" t="n">
-        <v>3620</v>
+        <v>9228.2251</v>
       </c>
       <c r="G44" t="n">
-        <v>76.43166666666662</v>
+        <v>76.38499999999995</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>78.09999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="C45" t="n">
-        <v>77.59999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="D45" t="n">
-        <v>78.09999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="E45" t="n">
-        <v>77.59999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="F45" t="n">
-        <v>4102.5793</v>
+        <v>3620</v>
       </c>
       <c r="G45" t="n">
-        <v>76.47499999999995</v>
+        <v>76.43166666666662</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>77.59999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C46" t="n">
         <v>77.59999999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>77.59999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E46" t="n">
         <v>77.59999999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>20980.5323</v>
+        <v>4102.5793</v>
       </c>
       <c r="G46" t="n">
-        <v>76.51833333333329</v>
+        <v>76.47499999999995</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1590,12 +1730,15 @@
         <v>77.59999999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>427.8981</v>
+        <v>20980.5323</v>
       </c>
       <c r="G47" t="n">
-        <v>76.55666666666663</v>
+        <v>76.51833333333329</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>77.40000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>77.40000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>18985.2355</v>
+        <v>427.8981</v>
       </c>
       <c r="G48" t="n">
-        <v>76.59499999999996</v>
+        <v>76.55666666666663</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="C49" t="n">
         <v>77.40000000000001</v>
       </c>
-      <c r="C49" t="n">
-        <v>77.09999999999999</v>
-      </c>
       <c r="D49" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E49" t="n">
         <v>77.40000000000001</v>
       </c>
-      <c r="E49" t="n">
-        <v>77.09999999999999</v>
-      </c>
       <c r="F49" t="n">
-        <v>27926.0806</v>
+        <v>18985.2355</v>
       </c>
       <c r="G49" t="n">
-        <v>76.62999999999995</v>
+        <v>76.59499999999996</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>77.2</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>77.2</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>15069.5952</v>
+        <v>27926.0806</v>
       </c>
       <c r="G50" t="n">
-        <v>76.66999999999994</v>
+        <v>76.62999999999995</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>77.59999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="C51" t="n">
-        <v>77.59999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="D51" t="n">
-        <v>77.59999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="E51" t="n">
-        <v>77.59999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="F51" t="n">
-        <v>10</v>
+        <v>15069.5952</v>
       </c>
       <c r="G51" t="n">
-        <v>76.71499999999996</v>
+        <v>76.66999999999994</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>76.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>76.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>42020</v>
+        <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>76.74833333333329</v>
+        <v>76.71499999999996</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>76.8</v>
+        <v>77.5</v>
       </c>
       <c r="C53" t="n">
-        <v>76.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>76.8</v>
+        <v>77.5</v>
       </c>
       <c r="E53" t="n">
-        <v>76.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>18000</v>
+        <v>42020</v>
       </c>
       <c r="G53" t="n">
-        <v>76.78499999999995</v>
+        <v>76.74833333333329</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>77.2</v>
+        <v>76.8</v>
       </c>
       <c r="C54" t="n">
-        <v>77.2</v>
+        <v>76.8</v>
       </c>
       <c r="D54" t="n">
-        <v>77.2</v>
+        <v>76.8</v>
       </c>
       <c r="E54" t="n">
-        <v>77.2</v>
+        <v>76.8</v>
       </c>
       <c r="F54" t="n">
-        <v>1172.8936</v>
+        <v>18000</v>
       </c>
       <c r="G54" t="n">
-        <v>76.81499999999997</v>
+        <v>76.78499999999995</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1798,12 +1962,15 @@
         <v>77.2</v>
       </c>
       <c r="F55" t="n">
-        <v>122.3738</v>
+        <v>1172.8936</v>
       </c>
       <c r="G55" t="n">
-        <v>76.85666666666663</v>
+        <v>76.81499999999997</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1824,12 +1991,15 @@
         <v>77.2</v>
       </c>
       <c r="F56" t="n">
-        <v>6085.1071</v>
+        <v>122.3738</v>
       </c>
       <c r="G56" t="n">
-        <v>76.89999999999995</v>
+        <v>76.85666666666663</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1841,21 +2011,24 @@
         <v>77.2</v>
       </c>
       <c r="C57" t="n">
-        <v>79.59999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="D57" t="n">
-        <v>79.59999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="E57" t="n">
         <v>77.2</v>
       </c>
       <c r="F57" t="n">
-        <v>185064.5670693467</v>
+        <v>6085.1071</v>
       </c>
       <c r="G57" t="n">
-        <v>76.98499999999996</v>
+        <v>76.89999999999995</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>76.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="C58" t="n">
-        <v>76.90000000000001</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>76.90000000000001</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>76.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="F58" t="n">
-        <v>7482.1359</v>
+        <v>185064.5670693467</v>
       </c>
       <c r="G58" t="n">
-        <v>77.01999999999995</v>
+        <v>76.98499999999996</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1893,21 +2069,24 @@
         <v>76.90000000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>77.2</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>77.2</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E59" t="n">
         <v>76.90000000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>22909.14</v>
+        <v>7482.1359</v>
       </c>
       <c r="G59" t="n">
-        <v>77.06666666666662</v>
+        <v>77.01999999999995</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="C60" t="n">
         <v>77.2</v>
       </c>
-      <c r="C60" t="n">
-        <v>77.90000000000001</v>
-      </c>
       <c r="D60" t="n">
-        <v>77.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="E60" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>13869.3585</v>
+        <v>22909.14</v>
       </c>
       <c r="G60" t="n">
-        <v>77.12333333333328</v>
+        <v>77.06666666666662</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="C61" t="n">
         <v>77.90000000000001</v>
       </c>
-      <c r="C61" t="n">
-        <v>78.5</v>
-      </c>
       <c r="D61" t="n">
-        <v>78.5</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>77.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="F61" t="n">
-        <v>31898.9448</v>
+        <v>13869.3585</v>
       </c>
       <c r="G61" t="n">
-        <v>77.18999999999996</v>
+        <v>77.12333333333328</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>78.2</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>78.2</v>
+        <v>78.5</v>
       </c>
       <c r="D62" t="n">
-        <v>78.2</v>
+        <v>78.5</v>
       </c>
       <c r="E62" t="n">
-        <v>78</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F62" t="n">
-        <v>10204.1123</v>
+        <v>31898.9448</v>
       </c>
       <c r="G62" t="n">
-        <v>77.25499999999994</v>
+        <v>77.18999999999996</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>77.90000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="C63" t="n">
-        <v>77.90000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="D63" t="n">
-        <v>77.90000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="E63" t="n">
-        <v>77.90000000000001</v>
+        <v>78</v>
       </c>
       <c r="F63" t="n">
-        <v>9975</v>
+        <v>10204.1123</v>
       </c>
       <c r="G63" t="n">
-        <v>77.29999999999994</v>
+        <v>77.25499999999994</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>78</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>78.40000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>78.40000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>78</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>6880.7466</v>
+        <v>9975</v>
       </c>
       <c r="G64" t="n">
-        <v>77.34499999999994</v>
+        <v>77.29999999999994</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,7 +2240,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>78.40000000000001</v>
+        <v>78</v>
       </c>
       <c r="C65" t="n">
         <v>78.40000000000001</v>
@@ -2055,15 +2249,18 @@
         <v>78.40000000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>78.40000000000001</v>
+        <v>78</v>
       </c>
       <c r="F65" t="n">
-        <v>2969.9653</v>
+        <v>6880.7466</v>
       </c>
       <c r="G65" t="n">
-        <v>77.38833333333326</v>
+        <v>77.34499999999994</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>78.09999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>78.09999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>78.09999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>78.09999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>2966.0782</v>
+        <v>2969.9653</v>
       </c>
       <c r="G66" t="n">
-        <v>77.42499999999994</v>
+        <v>77.38833333333326</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>78</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>77.7</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>78</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E67" t="n">
-        <v>77.7</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>11692.4875</v>
+        <v>2966.0782</v>
       </c>
       <c r="G67" t="n">
-        <v>77.45499999999994</v>
+        <v>77.42499999999994</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>77.90000000000001</v>
+        <v>78</v>
       </c>
       <c r="C68" t="n">
-        <v>78</v>
+        <v>77.7</v>
       </c>
       <c r="D68" t="n">
         <v>78</v>
       </c>
       <c r="E68" t="n">
-        <v>77.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="F68" t="n">
-        <v>12966.0783</v>
+        <v>11692.4875</v>
       </c>
       <c r="G68" t="n">
-        <v>77.47666666666662</v>
+        <v>77.45499999999994</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>78.40000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>78.40000000000001</v>
+        <v>78</v>
       </c>
       <c r="D69" t="n">
-        <v>78.40000000000001</v>
+        <v>78</v>
       </c>
       <c r="E69" t="n">
-        <v>78.40000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>2000</v>
+        <v>12966.0783</v>
       </c>
       <c r="G69" t="n">
-        <v>77.50166666666661</v>
+        <v>77.47666666666662</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2188,12 +2397,15 @@
         <v>78.40000000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>2490</v>
+        <v>2000</v>
       </c>
       <c r="G70" t="n">
-        <v>77.51999999999994</v>
+        <v>77.50166666666661</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>77.7</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>77.7</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>77.7</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>77.7</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>4625.8905</v>
+        <v>2490</v>
       </c>
       <c r="G71" t="n">
-        <v>77.52999999999993</v>
+        <v>77.51999999999994</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>78.2</v>
+        <v>77.7</v>
       </c>
       <c r="C72" t="n">
-        <v>78.2</v>
+        <v>77.7</v>
       </c>
       <c r="D72" t="n">
-        <v>78.2</v>
+        <v>77.7</v>
       </c>
       <c r="E72" t="n">
-        <v>78.2</v>
+        <v>77.7</v>
       </c>
       <c r="F72" t="n">
-        <v>4310</v>
+        <v>4625.8905</v>
       </c>
       <c r="G72" t="n">
-        <v>77.55166666666659</v>
+        <v>77.52999999999993</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>77.59999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="C73" t="n">
-        <v>77.59999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="D73" t="n">
-        <v>77.59999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="E73" t="n">
-        <v>77.59999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="F73" t="n">
-        <v>11572.0972</v>
+        <v>4310</v>
       </c>
       <c r="G73" t="n">
-        <v>77.56833333333326</v>
+        <v>77.55166666666659</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2292,12 +2513,15 @@
         <v>77.59999999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>386.597</v>
+        <v>11572.0972</v>
       </c>
       <c r="G74" t="n">
-        <v>77.5766666666666</v>
+        <v>77.56833333333326</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>77.40000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>77.40000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>77.40000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E75" t="n">
-        <v>77.40000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>6820</v>
+        <v>386.597</v>
       </c>
       <c r="G75" t="n">
-        <v>77.58333333333326</v>
+        <v>77.5766666666666</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>77.09999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>77.09999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>77.09999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>77.09999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F76" t="n">
-        <v>1448.0284</v>
+        <v>6820</v>
       </c>
       <c r="G76" t="n">
-        <v>77.58499999999994</v>
+        <v>77.58333333333326</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>10112.2279</v>
+        <v>1448.0284</v>
       </c>
       <c r="G77" t="n">
-        <v>77.58666666666659</v>
+        <v>77.58499999999994</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="C78" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="D78" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="E78" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0001</v>
+        <v>10112.2279</v>
       </c>
       <c r="G78" t="n">
         <v>77.58666666666659</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>7329.8429</v>
+        <v>0.0001</v>
       </c>
       <c r="G79" t="n">
-        <v>77.58999999999992</v>
+        <v>77.58666666666659</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>76.7</v>
+        <v>77</v>
       </c>
       <c r="C80" t="n">
-        <v>76.7</v>
+        <v>77</v>
       </c>
       <c r="D80" t="n">
-        <v>76.7</v>
+        <v>77</v>
       </c>
       <c r="E80" t="n">
-        <v>76.7</v>
+        <v>77</v>
       </c>
       <c r="F80" t="n">
-        <v>392.6984</v>
+        <v>7329.8429</v>
       </c>
       <c r="G80" t="n">
         <v>77.58999999999992</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>77</v>
+        <v>76.7</v>
       </c>
       <c r="C81" t="n">
-        <v>77</v>
+        <v>76.7</v>
       </c>
       <c r="D81" t="n">
-        <v>77</v>
+        <v>76.7</v>
       </c>
       <c r="E81" t="n">
-        <v>77</v>
+        <v>76.7</v>
       </c>
       <c r="F81" t="n">
-        <v>10188.2634</v>
+        <v>392.6984</v>
       </c>
       <c r="G81" t="n">
-        <v>77.59833333333326</v>
+        <v>77.58999999999992</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>77.2</v>
+        <v>77</v>
       </c>
       <c r="C82" t="n">
-        <v>77.2</v>
+        <v>77</v>
       </c>
       <c r="D82" t="n">
-        <v>77.2</v>
+        <v>77</v>
       </c>
       <c r="E82" t="n">
-        <v>77.2</v>
+        <v>77</v>
       </c>
       <c r="F82" t="n">
-        <v>151.774</v>
+        <v>10188.2634</v>
       </c>
       <c r="G82" t="n">
-        <v>77.61333333333324</v>
+        <v>77.59833333333326</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>76.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="C83" t="n">
-        <v>76.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="D83" t="n">
-        <v>76.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="E83" t="n">
-        <v>76.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="F83" t="n">
-        <v>1360</v>
+        <v>151.774</v>
       </c>
       <c r="G83" t="n">
-        <v>77.62333333333324</v>
+        <v>77.61333333333324</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2543,21 +2794,24 @@
         <v>76.90000000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>76.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D84" t="n">
         <v>76.90000000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>76.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>11284.1704</v>
+        <v>1360</v>
       </c>
       <c r="G84" t="n">
-        <v>77.63166666666658</v>
+        <v>77.62333333333324</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>76.7</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="D85" t="n">
-        <v>76.7</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E85" t="n">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="F85" t="n">
-        <v>818.4224</v>
+        <v>11284.1704</v>
       </c>
       <c r="G85" t="n">
-        <v>77.64166666666657</v>
+        <v>77.63166666666658</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>76.5</v>
+        <v>76.7</v>
       </c>
       <c r="C86" t="n">
-        <v>76.5</v>
+        <v>76.7</v>
       </c>
       <c r="D86" t="n">
-        <v>76.5</v>
+        <v>76.7</v>
       </c>
       <c r="E86" t="n">
-        <v>76.5</v>
+        <v>76.7</v>
       </c>
       <c r="F86" t="n">
-        <v>1975.05</v>
+        <v>818.4224</v>
       </c>
       <c r="G86" t="n">
-        <v>77.63166666666656</v>
+        <v>77.64166666666657</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>76.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="C87" t="n">
-        <v>76.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="D87" t="n">
-        <v>76.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="E87" t="n">
-        <v>76.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="F87" t="n">
-        <v>277.6764</v>
+        <v>1975.05</v>
       </c>
       <c r="G87" t="n">
-        <v>77.61999999999988</v>
+        <v>77.63166666666656</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>76.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>76.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>76.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>76.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>178.2802</v>
+        <v>277.6764</v>
       </c>
       <c r="G88" t="n">
-        <v>77.60333333333321</v>
+        <v>77.61999999999988</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2682,12 +2948,15 @@
         <v>76.5</v>
       </c>
       <c r="F89" t="n">
-        <v>39.8936</v>
+        <v>178.2802</v>
       </c>
       <c r="G89" t="n">
-        <v>77.58666666666655</v>
+        <v>77.60333333333321</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2699,21 +2968,24 @@
         <v>76.5</v>
       </c>
       <c r="C90" t="n">
-        <v>76.90000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="D90" t="n">
-        <v>76.90000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="E90" t="n">
         <v>76.5</v>
       </c>
       <c r="F90" t="n">
-        <v>11681.7692</v>
+        <v>39.8936</v>
       </c>
       <c r="G90" t="n">
-        <v>77.57666666666654</v>
+        <v>77.58666666666655</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>76.7</v>
+        <v>76.5</v>
       </c>
       <c r="C91" t="n">
-        <v>76.7</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>76.7</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E91" t="n">
-        <v>76.7</v>
+        <v>76.5</v>
       </c>
       <c r="F91" t="n">
-        <v>781</v>
+        <v>11681.7692</v>
       </c>
       <c r="G91" t="n">
-        <v>77.56666666666653</v>
+        <v>77.57666666666654</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>76.59999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="C92" t="n">
-        <v>76.59999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="D92" t="n">
-        <v>76.59999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="E92" t="n">
-        <v>76.59999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="F92" t="n">
-        <v>1574.386</v>
+        <v>781</v>
       </c>
       <c r="G92" t="n">
-        <v>77.55166666666653</v>
+        <v>77.56666666666653</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2786,12 +3064,15 @@
         <v>76.59999999999999</v>
       </c>
       <c r="F93" t="n">
-        <v>691.6295</v>
+        <v>1574.386</v>
       </c>
       <c r="G93" t="n">
-        <v>77.53499999999987</v>
+        <v>77.55166666666653</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>76.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>76.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>76.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>76.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F94" t="n">
-        <v>5228.7581</v>
+        <v>691.6295</v>
       </c>
       <c r="G94" t="n">
-        <v>77.51499999999987</v>
+        <v>77.53499999999987</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2829,21 +3113,24 @@
         <v>76.5</v>
       </c>
       <c r="C95" t="n">
-        <v>76.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="D95" t="n">
-        <v>76.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="E95" t="n">
         <v>76.5</v>
       </c>
       <c r="F95" t="n">
-        <v>2750</v>
+        <v>5228.7581</v>
       </c>
       <c r="G95" t="n">
-        <v>77.49499999999988</v>
+        <v>77.51499999999987</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,7 +3139,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>76.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="C96" t="n">
         <v>76.59999999999999</v>
@@ -2861,15 +3148,18 @@
         <v>76.59999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>76.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="F96" t="n">
-        <v>556</v>
+        <v>2750</v>
       </c>
       <c r="G96" t="n">
-        <v>77.47166666666655</v>
+        <v>77.49499999999988</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2881,21 +3171,24 @@
         <v>76.59999999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>76.90000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>76.90000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E97" t="n">
         <v>76.59999999999999</v>
       </c>
       <c r="F97" t="n">
-        <v>3660</v>
+        <v>556</v>
       </c>
       <c r="G97" t="n">
-        <v>77.44833333333321</v>
+        <v>77.47166666666655</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,7 +3197,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>76.90000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C98" t="n">
         <v>76.90000000000001</v>
@@ -2913,15 +3206,18 @@
         <v>76.90000000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>76.90000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F98" t="n">
-        <v>1300.390117035111</v>
+        <v>3660</v>
       </c>
       <c r="G98" t="n">
-        <v>77.42166666666654</v>
+        <v>77.44833333333321</v>
       </c>
       <c r="H98" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2942,12 +3238,15 @@
         <v>76.90000000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>130</v>
+        <v>1300.390117035111</v>
       </c>
       <c r="G99" t="n">
-        <v>77.39166666666652</v>
+        <v>77.42166666666654</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2968,12 +3267,15 @@
         <v>76.90000000000001</v>
       </c>
       <c r="F100" t="n">
-        <v>3660</v>
+        <v>130</v>
       </c>
       <c r="G100" t="n">
-        <v>77.36166666666652</v>
+        <v>77.39166666666652</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2994,12 +3296,15 @@
         <v>76.90000000000001</v>
       </c>
       <c r="F101" t="n">
-        <v>1299</v>
+        <v>3660</v>
       </c>
       <c r="G101" t="n">
-        <v>77.33166666666652</v>
+        <v>77.36166666666652</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3011,21 +3316,24 @@
         <v>76.90000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>77.40000000000001</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>77.40000000000001</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E102" t="n">
         <v>76.90000000000001</v>
       </c>
       <c r="F102" t="n">
-        <v>39305.9369</v>
+        <v>1299</v>
       </c>
       <c r="G102" t="n">
-        <v>77.31833333333319</v>
+        <v>77.33166666666652</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>76.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>76.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>76.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>76.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F103" t="n">
-        <v>105.6297</v>
+        <v>39305.9369</v>
       </c>
       <c r="G103" t="n">
-        <v>77.29666666666652</v>
+        <v>77.31833333333319</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>76.3</v>
+        <v>76.5</v>
       </c>
       <c r="C104" t="n">
-        <v>76.3</v>
+        <v>76.5</v>
       </c>
       <c r="D104" t="n">
-        <v>76.3</v>
+        <v>76.5</v>
       </c>
       <c r="E104" t="n">
-        <v>76.3</v>
+        <v>76.5</v>
       </c>
       <c r="F104" t="n">
-        <v>5000</v>
+        <v>105.6297</v>
       </c>
       <c r="G104" t="n">
-        <v>77.27166666666652</v>
+        <v>77.29666666666652</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3098,12 +3412,15 @@
         <v>76.3</v>
       </c>
       <c r="F105" t="n">
-        <v>118.0571</v>
+        <v>5000</v>
       </c>
       <c r="G105" t="n">
-        <v>77.24999999999984</v>
+        <v>77.27166666666652</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>76.40000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="C106" t="n">
-        <v>76.40000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="D106" t="n">
-        <v>76.40000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="E106" t="n">
-        <v>76.40000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="F106" t="n">
-        <v>16649.1209</v>
+        <v>118.0571</v>
       </c>
       <c r="G106" t="n">
-        <v>77.22999999999983</v>
+        <v>77.24999999999984</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3150,12 +3470,15 @@
         <v>76.40000000000001</v>
       </c>
       <c r="F107" t="n">
-        <v>12500</v>
+        <v>16649.1209</v>
       </c>
       <c r="G107" t="n">
-        <v>77.20999999999982</v>
+        <v>77.22999999999983</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>77</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>77</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>77</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E108" t="n">
-        <v>77</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F108" t="n">
-        <v>12110</v>
+        <v>12500</v>
       </c>
       <c r="G108" t="n">
-        <v>77.20333333333316</v>
+        <v>77.20999999999982</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3202,12 +3528,15 @@
         <v>77</v>
       </c>
       <c r="F109" t="n">
-        <v>14</v>
+        <v>12110</v>
       </c>
       <c r="G109" t="n">
-        <v>77.2016666666665</v>
+        <v>77.20333333333316</v>
       </c>
       <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3231,9 +3560,12 @@
         <v>14</v>
       </c>
       <c r="G110" t="n">
-        <v>77.19833333333317</v>
+        <v>77.2016666666665</v>
       </c>
       <c r="H110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3254,12 +3586,15 @@
         <v>77</v>
       </c>
       <c r="F111" t="n">
-        <v>88.5064</v>
+        <v>14</v>
       </c>
       <c r="G111" t="n">
-        <v>77.18833333333315</v>
+        <v>77.19833333333317</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>76.7</v>
+        <v>77</v>
       </c>
       <c r="C112" t="n">
-        <v>76.7</v>
+        <v>77</v>
       </c>
       <c r="D112" t="n">
-        <v>76.7</v>
+        <v>77</v>
       </c>
       <c r="E112" t="n">
-        <v>76.7</v>
+        <v>77</v>
       </c>
       <c r="F112" t="n">
-        <v>88.8526</v>
+        <v>88.5064</v>
       </c>
       <c r="G112" t="n">
-        <v>77.18499999999982</v>
+        <v>77.18833333333315</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>76.59999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="C113" t="n">
-        <v>76.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="D113" t="n">
-        <v>76.59999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="E113" t="n">
-        <v>76.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="F113" t="n">
-        <v>10340</v>
+        <v>88.8526</v>
       </c>
       <c r="G113" t="n">
-        <v>77.17833333333314</v>
+        <v>77.18499999999982</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>76.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>76.7</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>76.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E114" t="n">
-        <v>76.7</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F114" t="n">
-        <v>1945.893089960887</v>
+        <v>10340</v>
       </c>
       <c r="G114" t="n">
-        <v>77.16999999999982</v>
+        <v>77.17833333333314</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>76.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="C115" t="n">
-        <v>76.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="D115" t="n">
-        <v>76.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="E115" t="n">
-        <v>76.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="F115" t="n">
-        <v>397.6679</v>
+        <v>1945.893089960887</v>
       </c>
       <c r="G115" t="n">
-        <v>77.15666666666648</v>
+        <v>77.16999999999982</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>76.3</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>76.3</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>76.3</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>76.3</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>5914.3407</v>
+        <v>397.6679</v>
       </c>
       <c r="G116" t="n">
-        <v>77.14166666666648</v>
+        <v>77.15666666666648</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3410,12 +3760,15 @@
         <v>76.3</v>
       </c>
       <c r="F117" t="n">
-        <v>5113.4288</v>
+        <v>5914.3407</v>
       </c>
       <c r="G117" t="n">
-        <v>77.08666666666649</v>
+        <v>77.14166666666648</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3436,12 +3789,15 @@
         <v>76.3</v>
       </c>
       <c r="F118" t="n">
-        <v>454.6106</v>
+        <v>5113.4288</v>
       </c>
       <c r="G118" t="n">
-        <v>77.0766666666665</v>
+        <v>77.08666666666649</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3462,12 +3818,15 @@
         <v>76.3</v>
       </c>
       <c r="F119" t="n">
-        <v>1620.4799</v>
+        <v>454.6106</v>
       </c>
       <c r="G119" t="n">
-        <v>77.0616666666665</v>
+        <v>77.0766666666665</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3488,12 +3847,15 @@
         <v>76.3</v>
       </c>
       <c r="F120" t="n">
-        <v>507.3753</v>
+        <v>1620.4799</v>
       </c>
       <c r="G120" t="n">
-        <v>77.03499999999984</v>
+        <v>77.0616666666665</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>76.5</v>
+        <v>76.3</v>
       </c>
       <c r="C121" t="n">
-        <v>76.5</v>
+        <v>76.3</v>
       </c>
       <c r="D121" t="n">
-        <v>76.5</v>
+        <v>76.3</v>
       </c>
       <c r="E121" t="n">
-        <v>76.5</v>
+        <v>76.3</v>
       </c>
       <c r="F121" t="n">
-        <v>7184.7085</v>
+        <v>507.3753</v>
       </c>
       <c r="G121" t="n">
-        <v>77.00166666666651</v>
+        <v>77.03499999999984</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>77.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="C122" t="n">
-        <v>77.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="D122" t="n">
-        <v>77.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="E122" t="n">
-        <v>77.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="F122" t="n">
-        <v>2388.9999</v>
+        <v>7184.7085</v>
       </c>
       <c r="G122" t="n">
-        <v>76.98333333333318</v>
+        <v>77.00166666666651</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3566,12 +3934,15 @@
         <v>77.09999999999999</v>
       </c>
       <c r="F123" t="n">
-        <v>38.9105</v>
+        <v>2388.9999</v>
       </c>
       <c r="G123" t="n">
-        <v>76.96999999999986</v>
+        <v>76.98333333333318</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>77.3</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C124" t="n">
-        <v>77.3</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>77.3</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E124" t="n">
-        <v>77.3</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F124" t="n">
-        <v>815</v>
+        <v>38.9105</v>
       </c>
       <c r="G124" t="n">
-        <v>76.95166666666654</v>
+        <v>76.96999999999986</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3618,12 +3992,15 @@
         <v>77.3</v>
       </c>
       <c r="F125" t="n">
-        <v>6223.855</v>
+        <v>815</v>
       </c>
       <c r="G125" t="n">
-        <v>76.93333333333321</v>
+        <v>76.95166666666654</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>77.09999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="C126" t="n">
-        <v>77.09999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="D126" t="n">
-        <v>77.09999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="E126" t="n">
-        <v>77.09999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="F126" t="n">
-        <v>1051.8669</v>
+        <v>6223.855</v>
       </c>
       <c r="G126" t="n">
-        <v>76.91666666666654</v>
+        <v>76.93333333333321</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3670,12 +4050,15 @@
         <v>77.09999999999999</v>
       </c>
       <c r="F127" t="n">
-        <v>10000</v>
+        <v>1051.8669</v>
       </c>
       <c r="G127" t="n">
-        <v>76.90666666666655</v>
+        <v>76.91666666666654</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>77.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>77.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>77.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E128" t="n">
-        <v>77.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F128" t="n">
-        <v>129.1989</v>
+        <v>10000</v>
       </c>
       <c r="G128" t="n">
-        <v>76.89666666666655</v>
+        <v>76.90666666666655</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>77.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>77.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>77.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E129" t="n">
-        <v>77.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F129" t="n">
-        <v>4333.4349</v>
+        <v>129.1989</v>
       </c>
       <c r="G129" t="n">
-        <v>76.88166666666656</v>
+        <v>76.89666666666655</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,7 +4125,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>77.5</v>
+        <v>77.3</v>
       </c>
       <c r="C130" t="n">
         <v>77.5</v>
@@ -3745,15 +4134,18 @@
         <v>77.5</v>
       </c>
       <c r="E130" t="n">
-        <v>77.5</v>
+        <v>77.3</v>
       </c>
       <c r="F130" t="n">
-        <v>12.9366</v>
+        <v>4333.4349</v>
       </c>
       <c r="G130" t="n">
-        <v>76.86666666666656</v>
+        <v>76.88166666666656</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3774,12 +4166,15 @@
         <v>77.5</v>
       </c>
       <c r="F131" t="n">
-        <v>3000</v>
+        <v>12.9366</v>
       </c>
       <c r="G131" t="n">
-        <v>76.86333333333323</v>
+        <v>76.86666666666656</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="C132" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="D132" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="E132" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="F132" t="n">
-        <v>4938.3762</v>
+        <v>3000</v>
       </c>
       <c r="G132" t="n">
-        <v>76.85333333333324</v>
+        <v>76.86333333333323</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,24 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>77.2</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>77.2</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>77.2</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>77.2</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F133" t="n">
-        <v>10404.3477</v>
+        <v>4938.3762</v>
       </c>
       <c r="G133" t="n">
-        <v>76.84666666666656</v>
+        <v>76.85333333333324</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>77.7</v>
+        <v>77.2</v>
       </c>
       <c r="C134" t="n">
-        <v>77.7</v>
+        <v>77.2</v>
       </c>
       <c r="D134" t="n">
-        <v>77.7</v>
+        <v>77.2</v>
       </c>
       <c r="E134" t="n">
-        <v>77.7</v>
+        <v>77.2</v>
       </c>
       <c r="F134" t="n">
-        <v>1014.9999</v>
+        <v>10404.3477</v>
       </c>
       <c r="G134" t="n">
-        <v>76.84833333333322</v>
+        <v>76.84666666666656</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="C135" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="D135" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="E135" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="F135" t="n">
-        <v>14000.0744</v>
+        <v>1014.9999</v>
       </c>
       <c r="G135" t="n">
-        <v>76.85166666666656</v>
+        <v>76.84833333333322</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C136" t="n">
         <v>77.59999999999999</v>
       </c>
       <c r="D136" t="n">
-        <v>77.8</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E136" t="n">
         <v>77.59999999999999</v>
       </c>
       <c r="F136" t="n">
-        <v>48890.6855</v>
+        <v>14000.0744</v>
       </c>
       <c r="G136" t="n">
-        <v>76.8599999999999</v>
+        <v>76.85166666666656</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="C137" t="n">
         <v>77.59999999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>77.59999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="E137" t="n">
         <v>77.59999999999999</v>
       </c>
       <c r="F137" t="n">
-        <v>41787.3711</v>
+        <v>48890.6855</v>
       </c>
       <c r="G137" t="n">
-        <v>76.86666666666657</v>
+        <v>76.8599999999999</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C138" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E138" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F138" t="n">
-        <v>12.9042</v>
+        <v>41787.3711</v>
       </c>
       <c r="G138" t="n">
-        <v>76.87333333333324</v>
+        <v>76.86666666666657</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="C139" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="D139" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="E139" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="F139" t="n">
-        <v>39174.1367</v>
+        <v>12.9042</v>
       </c>
       <c r="G139" t="n">
-        <v>76.88333333333324</v>
+        <v>76.87333333333324</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>77.8</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C140" t="n">
-        <v>77.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>77.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E140" t="n">
-        <v>77.8</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F140" t="n">
-        <v>10</v>
+        <v>39174.1367</v>
       </c>
       <c r="G140" t="n">
-        <v>76.90333333333324</v>
+        <v>76.88333333333324</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,24 +4444,27 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="C141" t="n">
-        <v>77.7</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="D141" t="n">
-        <v>77.7</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E141" t="n">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="F141" t="n">
-        <v>12.87</v>
+        <v>10</v>
       </c>
       <c r="G141" t="n">
-        <v>76.91499999999991</v>
+        <v>76.90333333333324</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4048,24 +4473,27 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="C142" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="D142" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="E142" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="F142" t="n">
-        <v>3059.2086</v>
+        <v>12.87</v>
       </c>
       <c r="G142" t="n">
-        <v>76.92166666666658</v>
+        <v>76.91499999999991</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C143" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E143" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F143" t="n">
-        <v>5148.005148005148</v>
+        <v>3059.2086</v>
       </c>
       <c r="G143" t="n">
-        <v>76.93499999999992</v>
+        <v>76.92166666666658</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>77.09999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="C144" t="n">
-        <v>77.09999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="D144" t="n">
-        <v>77.09999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="E144" t="n">
-        <v>77.09999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="F144" t="n">
-        <v>4665.7328</v>
+        <v>5148.005148005148</v>
       </c>
       <c r="G144" t="n">
-        <v>76.93999999999991</v>
+        <v>76.93499999999992</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4129,21 +4563,24 @@
         <v>77.09999999999999</v>
       </c>
       <c r="C145" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D145" t="n">
         <v>77.09999999999999</v>
       </c>
       <c r="E145" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F145" t="n">
-        <v>65362.806</v>
+        <v>4665.7328</v>
       </c>
       <c r="G145" t="n">
-        <v>76.94499999999992</v>
+        <v>76.93999999999991</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,24 +4589,27 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C146" t="n">
         <v>77</v>
       </c>
       <c r="D146" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E146" t="n">
         <v>77</v>
       </c>
       <c r="F146" t="n">
-        <v>1253.5349</v>
+        <v>65362.806</v>
       </c>
       <c r="G146" t="n">
-        <v>76.95333333333325</v>
+        <v>76.94499999999992</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4190,12 +4630,15 @@
         <v>77</v>
       </c>
       <c r="F147" t="n">
-        <v>6393.8078</v>
+        <v>1253.5349</v>
       </c>
       <c r="G147" t="n">
-        <v>76.96333333333327</v>
+        <v>76.95333333333325</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4216,12 +4659,15 @@
         <v>77</v>
       </c>
       <c r="F148" t="n">
-        <v>599.8528</v>
+        <v>6393.8078</v>
       </c>
       <c r="G148" t="n">
-        <v>76.97166666666659</v>
+        <v>76.96333333333327</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4242,532 +4688,15 @@
         <v>77</v>
       </c>
       <c r="F149" t="n">
-        <v>1210.2581</v>
+        <v>599.8528</v>
       </c>
       <c r="G149" t="n">
-        <v>76.97999999999993</v>
+        <v>76.97166666666659</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>77</v>
-      </c>
-      <c r="C150" t="n">
-        <v>77</v>
-      </c>
-      <c r="D150" t="n">
-        <v>77</v>
-      </c>
-      <c r="E150" t="n">
-        <v>77</v>
-      </c>
-      <c r="F150" t="n">
-        <v>13142</v>
-      </c>
-      <c r="G150" t="n">
-        <v>76.9816666666666</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>77</v>
-      </c>
-      <c r="C151" t="n">
-        <v>77</v>
-      </c>
-      <c r="D151" t="n">
-        <v>77</v>
-      </c>
-      <c r="E151" t="n">
-        <v>77</v>
-      </c>
-      <c r="F151" t="n">
-        <v>16473</v>
-      </c>
-      <c r="G151" t="n">
-        <v>76.98666666666661</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>77</v>
-      </c>
-      <c r="C152" t="n">
-        <v>77</v>
-      </c>
-      <c r="D152" t="n">
-        <v>77</v>
-      </c>
-      <c r="E152" t="n">
-        <v>77</v>
-      </c>
-      <c r="F152" t="n">
-        <v>100</v>
-      </c>
-      <c r="G152" t="n">
-        <v>76.99333333333327</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>77</v>
-      </c>
-      <c r="C153" t="n">
-        <v>77</v>
-      </c>
-      <c r="D153" t="n">
-        <v>77</v>
-      </c>
-      <c r="E153" t="n">
-        <v>77</v>
-      </c>
-      <c r="F153" t="n">
-        <v>43380.9456</v>
-      </c>
-      <c r="G153" t="n">
-        <v>76.99999999999993</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>77</v>
-      </c>
-      <c r="C154" t="n">
-        <v>77</v>
-      </c>
-      <c r="D154" t="n">
-        <v>77</v>
-      </c>
-      <c r="E154" t="n">
-        <v>77</v>
-      </c>
-      <c r="F154" t="n">
-        <v>6088.474</v>
-      </c>
-      <c r="G154" t="n">
-        <v>77.00833333333325</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="C155" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="D155" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="E155" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="F155" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G155" t="n">
-        <v>77.01333333333325</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="C156" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="D156" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="E156" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="F156" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G156" t="n">
-        <v>77.01666666666658</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="C157" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="D157" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="E157" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="F157" t="n">
-        <v>3521.7</v>
-      </c>
-      <c r="G157" t="n">
-        <v>77.01499999999992</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="C158" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="D158" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="E158" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="F158" t="n">
-        <v>543.4585</v>
-      </c>
-      <c r="G158" t="n">
-        <v>77.01999999999992</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="C159" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="D159" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="E159" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="F159" t="n">
-        <v>5149.3919</v>
-      </c>
-      <c r="G159" t="n">
-        <v>77.0266666666666</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="C160" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="D160" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="E160" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="F160" t="n">
-        <v>238.566</v>
-      </c>
-      <c r="G160" t="n">
-        <v>77.0266666666666</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="C161" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="D161" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="E161" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="F161" t="n">
-        <v>35505.0817</v>
-      </c>
-      <c r="G161" t="n">
-        <v>77.02499999999993</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="C162" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="D162" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="E162" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="F162" t="n">
-        <v>10</v>
-      </c>
-      <c r="G162" t="n">
-        <v>77.02666666666661</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="C163" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="D163" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="E163" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="F163" t="n">
-        <v>10010</v>
-      </c>
-      <c r="G163" t="n">
-        <v>77.04666666666661</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>77.8</v>
-      </c>
-      <c r="C164" t="n">
-        <v>77.8</v>
-      </c>
-      <c r="D164" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="E164" t="n">
-        <v>77.8</v>
-      </c>
-      <c r="F164" t="n">
-        <v>39336.6646</v>
-      </c>
-      <c r="G164" t="n">
-        <v>77.07166666666662</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>77.8</v>
-      </c>
-      <c r="C165" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="D165" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="E165" t="n">
-        <v>77.8</v>
-      </c>
-      <c r="F165" t="n">
-        <v>1630</v>
-      </c>
-      <c r="G165" t="n">
-        <v>77.10166666666662</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="C166" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="D166" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="E166" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="F166" t="n">
-        <v>16870</v>
-      </c>
-      <c r="G166" t="n">
-        <v>77.11999999999995</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="C167" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="D167" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="E167" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="F167" t="n">
-        <v>2090</v>
-      </c>
-      <c r="G167" t="n">
-        <v>77.13666666666661</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="C168" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="D168" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="E168" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="F168" t="n">
-        <v>44.8875</v>
-      </c>
-      <c r="G168" t="n">
-        <v>77.14166666666662</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="C169" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="D169" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="E169" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="F169" t="n">
-        <v>8249.116400000001</v>
-      </c>
-      <c r="G169" t="n">
-        <v>77.14833333333328</v>
-      </c>
-      <c r="H169" t="n">
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
